--- a/checklists_clean/2012-13-totally-certified-hobby-checklist.xlsx
+++ b/checklists_clean/2012-13-totally-certified-hobby-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fyrex/antiGravityCode/checklists_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A3ED13-EE7E-404B-B0A8-335BD52CD1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB51A5BA-D75F-D140-B0BE-60CB46340694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25580" yWindow="620" windowWidth="25620" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13580" yWindow="920" windowWidth="25620" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_clean" sheetId="1" r:id="rId1"/>
@@ -1717,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3523" workbookViewId="0">
+      <selection activeCell="C3552" sqref="C3552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -59353,7 +59353,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D4239" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
